--- a/漫展信息/广州-漫展信息.xlsx
+++ b/漫展信息/广州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,12 +506,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -547,12 +545,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>927</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>1043</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -588,7 +584,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -629,11 +625,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10636</v>
+        <v>11084</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>已售罄</t>
         </is>
       </c>
       <c r="H5" t="b">
@@ -670,12 +666,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1064</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>1243</v>
+      </c>
+      <c r="G6" t="n">
+        <v>55</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -711,12 +705,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>342</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>381</v>
+      </c>
+      <c r="G7" t="n">
+        <v>68</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -752,12 +744,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>575</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>619</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -793,11 +783,11 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1881</v>
+        <v>2033</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -834,12 +824,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>575</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+        <v>606</v>
+      </c>
+      <c r="G10" t="n">
+        <v>48</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -875,12 +863,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>707</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>757</v>
+      </c>
+      <c r="G11" t="n">
+        <v>65</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -916,12 +902,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>203</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>247</v>
+      </c>
+      <c r="G12" t="n">
+        <v>60</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -938,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -953,16 +937,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.29 10:00-01.29 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>274</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>332</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -998,12 +980,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>241</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>310</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1025,7 +1005,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1039,12 +1019,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>267</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>292</v>
+      </c>
+      <c r="G15" t="n">
+        <v>68</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1080,12 +1058,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>958</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+        <v>1025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>35</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -1121,12 +1097,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>357</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>398</v>
+      </c>
+      <c r="G17" t="n">
+        <v>75</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1143,38 +1117,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>165</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="G18" t="n">
+        <v>63</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1156,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1199,23 +1171,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>395</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>223</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1230,33 +1200,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.16 09:30-02.16 16:30</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>596</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>457</v>
+      </c>
+      <c r="G20" t="n">
+        <v>58</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1266,38 +1234,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广州·cooperative kingdom同人展2.0</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号 岭南电商园</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.18 10:00-02.18 17:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>772</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>685</v>
+      </c>
+      <c r="G21" t="n">
+        <v>58</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1307,38 +1273,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024.02.18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广州·明日方舟ONLY</t>
+          <t>广州·cooperative kingdom同人展2.0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>洛浦街夏滘西环路1号 岭南电商园</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.02.18 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>162</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>801</v>
+      </c>
+      <c r="G22" t="n">
+        <v>55</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1348,38 +1312,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.03.16</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广州·代号鸢only2.0</t>
+          <t>广州·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>西湾路150号 悦汇城</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 21:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>419</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="G23" t="n">
+        <v>48</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1389,38 +1351,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.04.20</t>
+          <t>2024.03.02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+          <t>广州·明日方舟ONLY</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄 颐和大酒店</t>
+          <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.04.20 10:00-04.20 17:00</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>171</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+        <v>185</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1388,79 @@
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024.03.16</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广州·代号鸢only2.0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>清河东路288号 科尔海悦酒店</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 21:00</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>474</v>
+      </c>
+      <c r="G25" t="n">
+        <v>39</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024.03.16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广州·原神X星穹铁道X绝区零ONLY</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1456,17 +1468,121 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>2024.03.23</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广州·排球少年ONLY</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.23 17:00</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>60</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024.04.20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>同泰路颐和山庄 颐和大酒店</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024.04.20 10:00-04.20 17:00</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>217</v>
+      </c>
+      <c r="G28" t="n">
+        <v>69</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1479,7 +1595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,12 +1673,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>280</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1625,33 +1739,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
+          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
+          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.01.21 19:30-01.21 21:00</t>
+          <t>2024.01.21 15:30-01.21 17:00</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
+        <v>649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>380</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1661,38 +1773,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>中山纪念堂 中山纪念堂</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
+          <t>2024.01.21 19:30-01.21 21:00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>180</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1702,38 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
+          <t>2024.01.27 20:00-01.27 22:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>380</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1743,38 +1851,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
+          <t>东风中路299号 广州中山纪念堂</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
+          <t>2024.01.28 19:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>608</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1784,38 +1890,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+          <t>革新路124号 太古仓码头</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
+          <t>2024.02.04 12:30-02.04 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
+        <v>661</v>
+      </c>
+      <c r="G8" t="n">
+        <v>380</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1823,14 +1927,40 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024.02.24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024.02.24 20:00-02.24 22:00</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>420</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1849,12 +1979,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -1862,6 +1987,24 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1982,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2060,12 +2203,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>280</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>280</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -2142,12 +2283,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -2183,12 +2322,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>927</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>1043</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -2210,33 +2347,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·全职高手only（取消）</t>
+          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
+          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.01.21 15:30-01.21 17:00</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>120</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>649</v>
+      </c>
+      <c r="G6" t="n">
+        <v>380</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2251,25 +2386,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
+          <t>广州·全职高手only（取消）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
+          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024.01.21 19:30-01.21 21:00</t>
+          <t>2024.01.21 10:00-01.21 17:00</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -2277,7 +2412,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2287,38 +2422,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·《FGO》FES2024·广州特别纪念展</t>
+          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>新港东路1000号 保利世贸博览馆</t>
+          <t>中山纪念堂 中山纪念堂</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024.01.26 09:00-01.28 17:00</t>
+          <t>2024.01.21 19:30-01.21 21:00</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10636</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>180</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2328,30 +2461,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州.星火.AI次元动漫展</t>
+          <t>广州·《FGO》FES2024·广州特别纪念展</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>新港东路1000号 保利世贸博览馆</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.26 09:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1064</v>
+        <v>11084</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>已售罄</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -2359,7 +2492,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2374,33 +2507,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州.星火.AI次元动漫展</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>1243</v>
+      </c>
+      <c r="G10" t="n">
+        <v>55</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2415,33 +2546,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广州·妖都魔法少女小圆ONLY</t>
+          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.27 20:00-01.27 22:00</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>342</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>380</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2585,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广州·第七届萌物语动漫嘉年华</t>
+          <t>广州·妖都魔法少女小圆ONLY</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2470,19 +2599,17 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>575</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>381</v>
+      </c>
+      <c r="G12" t="n">
+        <v>68</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2497,33 +2624,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广州·第五人格only唐人街春市</t>
+          <t>广州·第七届萌物语动漫嘉年华</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:30</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1881</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+        <v>619</v>
+      </c>
+      <c r="G13" t="n">
+        <v>60</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2538,33 +2663,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
+          <t>广州·第五人格only唐人街春市</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>沙滘中路41-50号 火星工厂</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.29 00:00</t>
+          <t>2024.01.27 10:00-01.27 16:30</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>575</v>
+        <v>2033</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>不可售</t>
         </is>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2579,33 +2704,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广州·蓝锁only2.0</t>
+          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大石街石北工业大道644号 巨大创意产业园</t>
+          <t>沙滘中路41-50号 火星工厂</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.27 12:00-01.29 00:00</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>707</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+        <v>606</v>
+      </c>
+      <c r="G15" t="n">
+        <v>48</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2615,38 +2738,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t>广州·蓝锁only2.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
+          <t>大石街石北工业大道644号 巨大创意产业园</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+        <v>757</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2661,33 +2782,31 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广州·排球少年.only</t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>东风中路299号 广州中山纪念堂</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.01.28 19:00-01.28 21:00</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>203</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2816,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州·文豪野犬only</t>
+          <t>广州·排球少年.only</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2712,23 +2831,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024.01.29 10:00-01.29 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>274</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>247</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2738,12 +2855,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.01.30</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州·进击的巨人only</t>
+          <t>广州·文豪野犬only</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2753,23 +2870,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024.01.30 10:00-01.30 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>241</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>332</v>
+      </c>
+      <c r="G19" t="n">
+        <v>60</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2779,38 +2894,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.01</t>
+          <t>2024.01.30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY</t>
+          <t>广州·进击的巨人only</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>东圃中山大道中358号 轰谧斯酒店</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024.02.01 10:00-02.01 17:00</t>
+          <t>2024.01.30 10:00-01.30 17:00</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>267</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
+        <v>310</v>
+      </c>
+      <c r="G20" t="n">
+        <v>60</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2820,38 +2933,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>从化·FS动漫展</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>从城大道383号 云岭湖酒店</t>
+          <t>东圃中山大道中358号 轰谧斯酒店</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.01 10:00-02.01 17:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>958</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+        <v>292</v>
+      </c>
+      <c r="G21" t="n">
+        <v>68</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2866,33 +2977,31 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广州·怀旧ONLY</t>
+          <t>从化·FS动漫展</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>从城大道383号 云岭湖酒店</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 16:30</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>357</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+        <v>1025</v>
+      </c>
+      <c r="G22" t="n">
+        <v>35</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2902,38 +3011,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州·怀旧ONLY</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
+          <t>2024.02.03 10:00-02.03 16:30</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>608</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
+        <v>398</v>
+      </c>
+      <c r="G23" t="n">
+        <v>75</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2943,38 +3050,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>革新路124号 太古仓码头</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.04 12:30-02.04 21:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>165</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>661</v>
+      </c>
+      <c r="G24" t="n">
+        <v>380</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2984,38 +3089,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>395</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>63</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3025,38 +3128,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>596</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+        <v>223</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3066,38 +3167,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广州·cooperative kingdom同人展2.0</t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号 岭南电商园</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024.02.18 10:00-02.18 17:00</t>
+          <t>2024.02.16 09:30-02.16 16:30</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>772</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
+        <v>457</v>
+      </c>
+      <c r="G27" t="n">
+        <v>58</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3107,38 +3206,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
+        <v>685</v>
+      </c>
+      <c r="G28" t="n">
+        <v>58</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3148,38 +3245,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024.02.18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广州·明日方舟ONLY</t>
+          <t>广州·cooperative kingdom同人展2.0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>洛浦街夏滘西环路1号 岭南电商园</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.02.18 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>162</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>801</v>
+      </c>
+      <c r="G29" t="n">
+        <v>55</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3189,38 +3284,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024.03.16</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广州·代号鸢only2.0</t>
+          <t>广州·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>西湾路150号 悦汇城</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 21:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>419</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="G30" t="n">
+        <v>48</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3230,38 +3323,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024.04.20</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄 颐和大酒店</t>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024.04.20 10:00-04.20 17:00</t>
+          <t>2024.02.24 20:00-02.24 22:00</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>171</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
+        <v>420</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3269,27 +3360,79 @@
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024.03.02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广州·明日方舟ONLY</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>清河东路288号 科尔海悦酒店</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024.03.02 10:00-03.02 17:00</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>185</v>
+      </c>
+      <c r="G32" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024.03.16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广州·代号鸢only2.0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>清河东路288号 科尔海悦酒店</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 21:00</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>474</v>
+      </c>
+      <c r="G33" t="n">
+        <v>39</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3297,17 +3440,160 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>2024.03.16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广州·原神X星穹铁道X绝区零ONLY</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>60</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024.03.23</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广州·排球少年ONLY</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.23 17:00</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>60</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024.04.20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>同泰路颐和山庄 颐和大酒店</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024.04.20 10:00-04.20 17:00</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>217</v>
+      </c>
+      <c r="G36" t="n">
+        <v>69</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
 项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/广州-漫展信息.xlsx
+++ b/漫展信息/广州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,25 +457,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -492,31 +497,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广州·第五届清云动漫展</t>
+          <t>广州·运动番ONLY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024.01.20 10:00-01.20 17:00</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>69</v>
-      </c>
       <c r="G2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
+        <v>1194</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77532&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -526,36 +532,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广州·运动番ONLY</t>
+          <t>广州·全职高手only（取消）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1043</v>
+          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024.01.21 10:00-01.21 17:00</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77532&amp;msource=Msearch_colligation</t>
+        <v>121</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -565,38 +574,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024.01.26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广州·全职高手only（取消）</t>
+          <t>广州·《FGO》FES2024·广州特别纪念展</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>121</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
+          <t>新港东路1000号 保利世贸博览馆</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024.01.26 09:00-01.28 17:00</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>11218</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -606,38 +616,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·《FGO》FES2024·广州特别纪念展</t>
+          <t>广州.星火.AI次元动漫展</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>新港东路1000号 保利世贸博览馆</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024.01.26 09:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>11084</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 17:00</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1534</v>
+      </c>
+      <c r="H5" t="n">
+        <v>55</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -652,31 +661,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州.星火.AI次元动漫展</t>
+          <t>广州·妖都魔法少女小圆ONLY</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1243</v>
-      </c>
       <c r="G6" t="n">
-        <v>55</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
+        <v>429</v>
+      </c>
+      <c r="H6" t="n">
+        <v>68</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -691,31 +701,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·妖都魔法少女小圆ONLY</t>
+          <t>广州·第七届萌物语动漫嘉年华</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>381</v>
-      </c>
       <c r="G7" t="n">
-        <v>68</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
+        <v>705</v>
+      </c>
+      <c r="H7" t="n">
+        <v>60</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -730,31 +741,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·第七届萌物语动漫嘉年华</t>
+          <t>广州·第五人格only唐人街春市</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>619</v>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 16:30</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>60</v>
-      </c>
-      <c r="H8" t="b">
+        <v>2195</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -769,33 +783,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州·第五人格only唐人街春市</t>
+          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 16:30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2033</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
+          <t>沙滘中路41-50号 火星工厂</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024.01.27 12:00-01.29 00:00</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>646</v>
+      </c>
+      <c r="H9" t="n">
+        <v>48</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -810,31 +823,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
+          <t>广州·蓝锁only2.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>沙滘中路41-50号 火星工厂</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024.01.27 12:00-01.29 00:00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>606</v>
+          <t>大石街石北工业大道644号 巨大创意产业园</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 17:00</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>48</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
+        <v>865</v>
+      </c>
+      <c r="H10" t="n">
+        <v>65</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -844,36 +858,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广州·蓝锁only2.0</t>
+          <t>广州·文豪野犬only</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大石街石北工业大道644号 巨大创意产业园</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>757</v>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024.01.28 10:00-01.28 17:00</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>65</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
+        <v>467</v>
+      </c>
+      <c r="H11" t="n">
+        <v>60</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -883,7 +898,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.01.29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,21 +911,22 @@
           <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>247</v>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024.01.29 10:00-01.29 17:00</t>
+        </is>
       </c>
       <c r="G12" t="n">
+        <v>345</v>
+      </c>
+      <c r="H12" t="n">
         <v>60</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
         </is>
@@ -922,12 +938,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.01.30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广州·文豪野犬only</t>
+          <t>广州·进击的巨人only</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -935,23 +951,24 @@
           <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>332</v>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024.01.30 10:00-01.30 17:00</t>
+        </is>
       </c>
       <c r="G13" t="n">
+        <v>381</v>
+      </c>
+      <c r="H13" t="n">
         <v>60</v>
       </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -961,36 +978,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.30</t>
+          <t>2024.02.01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广州·进击的巨人only</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024.01.30 10:00-01.30 17:00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>310</v>
+          <t>东圃中山大道中358号 轰谧斯酒店</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024.02.01 10:00-02.01 17:00</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
+        <v>351</v>
+      </c>
+      <c r="H14" t="n">
+        <v>68</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1000,36 +1018,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.02.01</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
+          <t>从化·FS动漫展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>东圃中山大道中358号 轰谧斯酒店</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024.02.01 10:00-02.01 17:00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>292</v>
+          <t>从城大道383号 云岭湖酒店</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.03 17:00</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>68</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
+        <v>1118</v>
+      </c>
+      <c r="H15" t="n">
+        <v>35</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1044,31 +1063,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>从化·FS动漫展</t>
+          <t>广州·怀旧ONLY</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>从城大道383号 云岭湖酒店</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1025</v>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.03 16:30</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>35</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
+        <v>489</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1078,36 +1098,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广州·怀旧ONLY</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.03 16:30</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>398</v>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024.02.12 10:00-02.12 17:00</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>75</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
+        <v>872</v>
+      </c>
+      <c r="H17" t="n">
+        <v>63</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1117,36 +1138,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.02.12</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州·EY动漫嘉年华</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024.02.12 10:00-02.12 17:00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>95</v>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024.02.14 10:00-02.14 17:00</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>63</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
+        <v>338</v>
+      </c>
+      <c r="H18" t="n">
+        <v>60</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1178,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,23 +1191,24 @@
           <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>223</v>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024.02.16 09:30-02.16 16:30</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
+        <v>523</v>
+      </c>
+      <c r="H19" t="n">
+        <v>58</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1200,31 +1223,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>457</v>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024.02.16 10:00-02.17 17:00</t>
+        </is>
       </c>
       <c r="G20" t="n">
+        <v>823</v>
+      </c>
+      <c r="H20" t="n">
         <v>58</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1234,36 +1258,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州·cooperative kingdom同人展2.0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>685</v>
+          <t>洛浦街夏滘西环路1号 岭南电商园</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024.02.18 10:00-02.18 17:00</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>58</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
+        <v>847</v>
+      </c>
+      <c r="H21" t="n">
+        <v>55</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1273,36 +1298,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广州·cooperative kingdom同人展2.0</t>
+          <t>广州·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号 岭南电商园</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2024.02.18 10:00-02.18 17:00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>801</v>
+          <t>西湾路150号 悦汇城</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024.02.24 13:00-02.25 19:00</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>55</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
+        <v>66</v>
+      </c>
+      <c r="H22" t="n">
+        <v>48</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1317,31 +1343,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广州·SISP动漫游戏嘉年华</t>
+          <t>广州·砂糖桔动漫荟STJ01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>西湾路150号 悦汇城</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2024.02.24 13:00-02.25 19:00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>东沙大道16号 广州国际医药港</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024.02.24 10:00-02.25 18:00</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>48</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
+        <v>87</v>
+      </c>
+      <c r="H23" t="n">
+        <v>60</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80774&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1351,36 +1378,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024.02.25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广州·明日方舟ONLY</t>
+          <t>广州·第五届清云动漫展</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>185</v>
+          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024.02.25 10:00-02.25 17:00</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>60</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
+        <v>90</v>
+      </c>
+      <c r="H24" t="n">
+        <v>40</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1418,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.03.16</t>
+          <t>2024.03.02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广州·代号鸢only2.0</t>
+          <t>广州·明日方舟ONLY</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1403,23 +1431,24 @@
           <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2024.03.16 10:00-03.16 21:00</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>474</v>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024.03.02 10:00-03.02 17:00</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>39</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
+        <v>220</v>
+      </c>
+      <c r="H25" t="n">
+        <v>60</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1434,31 +1463,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广州·原神X星穹铁道X绝区零ONLY</t>
+          <t>广州·代号鸢only2.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2024.03.16 10:00-03.16 17:00</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>清河东路288号 科尔海悦酒店</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 21:00</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
+        <v>553</v>
+      </c>
+      <c r="H26" t="n">
+        <v>39</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1468,36 +1498,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.03.23</t>
+          <t>2024.03.16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广州·排球少年ONLY</t>
+          <t>广州·原神X星穹铁道X绝区零ONLY</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2024.03.23 10:00-03.23 17:00</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
+          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024.03.16 10:00-03.16 17:00</t>
+        </is>
       </c>
       <c r="G27" t="n">
+        <v>80</v>
+      </c>
+      <c r="H27" t="n">
         <v>60</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1507,36 +1538,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.04.20</t>
+          <t>2024.03.23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+          <t>广州·排球少年ONLY</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄 颐和大酒店</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2024.04.20 10:00-04.20 17:00</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>217</v>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024.03.23 10:00-03.23 17:00</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>69</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
+        <v>33</v>
+      </c>
+      <c r="H28" t="n">
+        <v>60</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1544,14 +1576,41 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024.04.20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广州·Arknights Only·夜航星（明日方舟Only)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>同泰路颐和山庄 颐和大酒店</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024.04.20 10:00-04.20 17:00</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>266</v>
+      </c>
+      <c r="H29" t="n">
+        <v>69</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1565,17 +1624,13 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -1583,6 +1638,26 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1595,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1624,25 +1699,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -1654,36 +1734,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.14</t>
+          <t>2024.01.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·【限时7折】“阿根廷瑰宝”舞中之王-探戈舞剧《燃情探戈》 </t>
+          <t xml:space="preserve">广州· 西班牙格拉纳达弗拉门戈舞团经典舞剧《卡门》 白金版  </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>人民北路696号 广州友谊剧院</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024.01.14 19:30-01.14 21:00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>中山纪念堂 中山纪念堂</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024.01.20 20:00-01.20 21:40</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>280</v>
-      </c>
-      <c r="H2" t="b">
+        <v>66</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78417&amp;msource=Msearch_colligation</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=74796&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1693,38 +1776,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州· 西班牙格拉纳达弗拉门戈舞团经典舞剧《卡门》 白金版  </t>
+          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024.01.20 20:00-01.20 21:40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>66</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=74796&amp;msource=Msearch_colligation</t>
+          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024.01.21 15:30-01.21 17:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>685</v>
+      </c>
+      <c r="H3" t="n">
+        <v>380</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1739,31 +1821,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
+          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024.01.21 15:30-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>649</v>
+          <t>中山纪念堂 中山纪念堂</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024.01.21 19:30-01.21 21:00</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>380</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
+        <v>30</v>
+      </c>
+      <c r="H4" t="n">
+        <v>180</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1773,36 +1856,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
+          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024.01.21 19:30-01.21 21:00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>27</v>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024.01.27 20:00-01.27 22:00</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>180</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
+        <v>71</v>
+      </c>
+      <c r="H5" t="n">
+        <v>380</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1812,36 +1896,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>62</v>
+          <t>东风中路299号 广州中山纪念堂</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024.01.28 19:00-01.28 21:00</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>380</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
+        <v>26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1851,36 +1936,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>20</v>
+          <t>革新路124号 太古仓码头</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024.02.04 12:30-02.04 21:00</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
+        <v>760</v>
+      </c>
+      <c r="H7" t="n">
+        <v>380</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1890,36 +1976,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>661</v>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024.02.24 20:00-02.24 22:00</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>380</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
+        <v>13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>420</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1927,40 +2014,15 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024.02.24</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>420</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1974,12 +2036,18 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -1987,24 +2055,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2017,7 +2068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2046,25 +2097,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -2082,6 +2138,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2095,6 +2152,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2113,6 +2171,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2125,7 +2184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2154,25 +2213,30 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>单程耗时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>具体时间范围</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>想去人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>最低票价</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>是否有舞台（字符串匹配）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -2184,36 +2248,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.14</t>
+          <t>2024.01.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·【限时7折】“阿根廷瑰宝”舞中之王-探戈舞剧《燃情探戈》 </t>
+          <t xml:space="preserve">广州· 西班牙格拉纳达弗拉门戈舞团经典舞剧《卡门》 白金版  </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>人民北路696号 广州友谊剧院</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024.01.14 19:30-01.14 21:00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>中山纪念堂 中山纪念堂</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024.01.20 20:00-01.20 21:40</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>280</v>
-      </c>
-      <c r="H2" t="b">
+        <v>66</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78417&amp;msource=Msearch_colligation</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=74796&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2228,33 +2295,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州· 西班牙格拉纳达弗拉门戈舞团经典舞剧《卡门》 白金版  </t>
+          <t>广州·运动番ONLY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024.01.20 20:00-01.20 21:40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>66</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=74796&amp;msource=Msearch_colligation</t>
+          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024.01.20 10:00-01.20 17:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1194</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77532&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2264,36 +2330,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广州·第五届清云动漫展</t>
+          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>69</v>
+          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024.01.21 15:30-01.21 17:00</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
+        <v>685</v>
+      </c>
+      <c r="H4" t="n">
+        <v>380</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2303,36 +2370,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024.01.21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·运动番ONLY</t>
+          <t>广州·全职高手only（取消）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1043</v>
+          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024.01.21 10:00-01.21 17:00</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77532&amp;msource=Msearch_colligation</t>
+        <v>121</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2347,31 +2417,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
+          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024.01.21 15:30-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>649</v>
+          <t>中山纪念堂 中山纪念堂</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024.01.21 19:30-01.21 21:00</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>380</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>180</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2381,38 +2452,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024.01.26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·全职高手only（取消）</t>
+          <t>广州·《FGO》FES2024·广州特别纪念展</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>121</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
+          <t>新港东路1000号 保利世贸博览馆</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024.01.26 09:00-01.28 17:00</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11218</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2422,36 +2494,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
+          <t>广州.星火.AI次元动漫展</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024.01.21 19:30-01.21 21:00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>27</v>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 17:00</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>180</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
+        <v>1534</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2461,38 +2534,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024.01.27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州·《FGO》FES2024·广州特别纪念展</t>
+          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>新港东路1000号 保利世贸博览馆</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024.01.26 09:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>11084</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024.01.27 20:00-01.27 22:00</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>71</v>
+      </c>
+      <c r="H9" t="n">
+        <v>380</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2507,31 +2579,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广州.星火.AI次元动漫展</t>
+          <t>广州·妖都魔法少女小圆ONLY</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>1243</v>
-      </c>
       <c r="G10" t="n">
-        <v>55</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
+        <v>429</v>
+      </c>
+      <c r="H10" t="n">
+        <v>68</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2546,31 +2619,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州·第七届萌物语动漫嘉年华</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>62</v>
+          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 17:00</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>380</v>
-      </c>
-      <c r="H11" t="b">
+        <v>705</v>
+      </c>
+      <c r="H11" t="n">
+        <v>60</v>
+      </c>
+      <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2585,31 +2659,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广州·妖都魔法少女小圆ONLY</t>
+          <t>广州·第五人格only唐人街春市</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>381</v>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 16:30</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>68</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
+        <v>2195</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>不可售</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2624,31 +2701,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广州·第七届萌物语动漫嘉年华</t>
+          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>619</v>
+          <t>沙滘中路41-50号 火星工厂</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024.01.27 12:00-01.29 00:00</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
+        <v>646</v>
+      </c>
+      <c r="H13" t="n">
+        <v>48</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2663,33 +2741,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广州·第五人格only唐人街春市</t>
+          <t>广州·蓝锁only2.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 16:30</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2033</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
+          <t>大石街石北工业大道644号 巨大创意产业园</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024.01.27 10:00-01.27 17:00</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>865</v>
+      </c>
+      <c r="H14" t="n">
+        <v>65</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2699,36 +2776,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>沙滘中路41-50号 火星工厂</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024.01.27 12:00-01.29 00:00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>606</v>
+          <t>东风中路299号 广州中山纪念堂</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024.01.28 19:00-01.28 21:00</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>48</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
+        <v>26</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2738,36 +2816,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024.01.28</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广州·蓝锁only2.0</t>
+          <t>广州·文豪野犬only</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大石街石北工业大道644号 巨大创意产业园</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>757</v>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024.01.28 10:00-01.28 17:00</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>65</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
+        <v>467</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2777,36 +2856,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.01.29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t>广州·排球少年.only</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>20</v>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024.01.29 10:00-01.29 17:00</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
+        <v>345</v>
+      </c>
+      <c r="H17" t="n">
+        <v>60</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2816,12 +2896,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.01.30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州·排球少年.only</t>
+          <t>广州·进击的巨人only</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2829,23 +2909,24 @@
           <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>247</v>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024.01.30 10:00-01.30 17:00</t>
+        </is>
       </c>
       <c r="G18" t="n">
+        <v>381</v>
+      </c>
+      <c r="H18" t="n">
         <v>60</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2855,36 +2936,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024.02.01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州·文豪野犬only</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>332</v>
+          <t>东圃中山大道中358号 轰谧斯酒店</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024.02.01 10:00-02.01 17:00</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
+        <v>351</v>
+      </c>
+      <c r="H19" t="n">
+        <v>68</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2894,36 +2976,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.01.30</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广州·进击的巨人only</t>
+          <t>从化·FS动漫展</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2024.01.30 10:00-01.30 17:00</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>310</v>
+          <t>从城大道383号 云岭湖酒店</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.03 17:00</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>60</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
+        <v>1118</v>
+      </c>
+      <c r="H20" t="n">
+        <v>35</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2933,36 +3016,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.01</t>
+          <t>2024.02.03</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
+          <t>广州·怀旧ONLY</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>东圃中山大道中358号 轰谧斯酒店</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2024.02.01 10:00-02.01 17:00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>292</v>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024.02.03 10:00-02.03 16:30</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>68</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
+        <v>489</v>
+      </c>
+      <c r="H21" t="n">
+        <v>60</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2972,36 +3056,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.04</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>从化·FS动漫展</t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>从城大道383号 云岭湖酒店</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1025</v>
+          <t>革新路124号 太古仓码头</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024.02.04 12:30-02.04 21:00</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>35</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
+        <v>760</v>
+      </c>
+      <c r="H22" t="n">
+        <v>380</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3011,36 +3096,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024.02.12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广州·怀旧ONLY</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2024.02.03 10:00-02.03 16:30</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>398</v>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024.02.12 10:00-02.12 17:00</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
+        <v>872</v>
+      </c>
+      <c r="H23" t="n">
+        <v>63</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3050,36 +3136,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024.02.14</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>661</v>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024.02.14 10:00-02.14 17:00</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>380</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
+        <v>338</v>
+      </c>
+      <c r="H24" t="n">
+        <v>60</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3089,36 +3176,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.02.12</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广州·EY动漫嘉年华</t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2024.02.12 10:00-02.12 17:00</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>95</v>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024.02.16 09:30-02.16 16:30</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>63</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
+        <v>523</v>
+      </c>
+      <c r="H25" t="n">
+        <v>58</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3128,36 +3216,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024.02.16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>223</v>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024.02.16 10:00-02.17 17:00</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>60</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
+        <v>823</v>
+      </c>
+      <c r="H26" t="n">
+        <v>58</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3167,36 +3256,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.18</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·cooperative kingdom同人展2.0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>457</v>
+          <t>洛浦街夏滘西环路1号 岭南电商园</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024.02.18 10:00-02.18 17:00</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>58</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
+        <v>847</v>
+      </c>
+      <c r="H27" t="n">
+        <v>55</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3206,36 +3296,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>685</v>
+          <t>西湾路150号 悦汇城</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024.02.24 13:00-02.25 19:00</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>58</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
+        <v>66</v>
+      </c>
+      <c r="H28" t="n">
+        <v>48</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3245,36 +3336,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2024.02.24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广州·cooperative kingdom同人展2.0</t>
+          <t>广州·砂糖桔动漫荟STJ01</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号 岭南电商园</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2024.02.18 10:00-02.18 17:00</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>801</v>
+          <t>东沙大道16号 广州国际医药港</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024.02.24 10:00-02.25 18:00</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>55</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
+        <v>87</v>
+      </c>
+      <c r="H29" t="n">
+        <v>60</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80774&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3289,31 +3381,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广州·SISP动漫游戏嘉年华</t>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>西湾路150号 悦汇城</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2024.02.24 13:00-02.25 19:00</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024.02.24 20:00-02.24 22:00</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>48</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
+        <v>13</v>
+      </c>
+      <c r="H30" t="n">
+        <v>420</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3323,36 +3416,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024.02.25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+          <t>广州·第五届清云动漫展</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024.02.25 10:00-02.25 17:00</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>420</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
+        <v>90</v>
+      </c>
+      <c r="H31" t="n">
+        <v>40</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3375,21 +3469,22 @@
           <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>185</v>
-      </c>
       <c r="G32" t="n">
+        <v>220</v>
+      </c>
+      <c r="H32" t="n">
         <v>60</v>
       </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
         </is>
@@ -3414,21 +3509,22 @@
           <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>2024.03.16 10:00-03.16 21:00</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>474</v>
-      </c>
       <c r="G33" t="n">
+        <v>553</v>
+      </c>
+      <c r="H33" t="n">
         <v>39</v>
       </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
         </is>
@@ -3453,21 +3549,22 @@
           <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
       <c r="G34" t="n">
+        <v>80</v>
+      </c>
+      <c r="H34" t="n">
         <v>60</v>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
         </is>
@@ -3492,21 +3589,22 @@
           <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>2024.03.23 10:00-03.23 17:00</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
         <v>60</v>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr">
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
         </is>
@@ -3531,21 +3629,22 @@
           <t>同泰路颐和山庄 颐和大酒店</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>2024.04.20 10:00-04.20 17:00</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>217</v>
-      </c>
       <c r="G36" t="n">
+        <v>266</v>
+      </c>
+      <c r="H36" t="n">
         <v>69</v>
       </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
         </is>
@@ -3563,6 +3662,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3576,6 +3676,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3594,6 +3695,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/漫展信息/广州-漫展信息.xlsx
+++ b/漫展信息/广州-漫展信息.xlsx
@@ -492,37 +492,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广州·运动番ONLY</t>
+          <t>广州·《FGO》FES2024·广州特别纪念展</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+          <t>新港东路1000号 保利世贸博览馆</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.26 09:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1194</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60</v>
+        <v>11345</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77532&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -532,39 +534,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广州·全职高手only（取消）</t>
+          <t>广州.星火.AI次元动漫展</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>121</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>1840</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -574,39 +574,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广州·《FGO》FES2024·广州特别纪念展</t>
+          <t>广州·妖都魔法少女小圆ONLY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>新港东路1000号 保利世贸博览馆</t>
+          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.01.26 09:00-01.28 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11218</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>已售罄</t>
-        </is>
+        <v>510</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -616,17 +614,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州.星火.AI次元动漫展</t>
+          <t>广州·第七届萌物语动漫嘉年华</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -636,17 +634,17 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1534</v>
+        <v>808</v>
       </c>
       <c r="H5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -656,37 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·妖都魔法少女小圆ONLY</t>
+          <t>广州·第五人格only唐人街春市</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.27 10:00-01.27 16:30</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>429</v>
-      </c>
-      <c r="H6" t="n">
-        <v>68</v>
+        <v>2406</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>已售罄</t>
+        </is>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -696,37 +696,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·第七届萌物语动漫嘉年华</t>
+          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+          <t>沙滘中路41-50号 火星工厂</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.27 12:00-01.29 00:00</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="H7" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -736,39 +736,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州·第五人格only唐人街春市</t>
+          <t>广州·蓝锁only2.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>大石街石北工业大道644号 巨大创意产业园</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:30</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2195</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>967</v>
+      </c>
+      <c r="H8" t="n">
+        <v>65</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -778,37 +776,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
+          <t>广州·文豪野犬only</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>沙滘中路41-50号 火星工厂</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.29 00:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>646</v>
+        <v>571</v>
       </c>
       <c r="H9" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -818,37 +816,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广州·蓝锁only2.0</t>
+          <t>广州·排球少年.only</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大石街石北工业大道644号 巨大创意产业园</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.29 10:00-01.29 17:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>865</v>
+        <v>432</v>
       </c>
       <c r="H10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -858,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广州·文豪野犬only</t>
+          <t>广州·进击的巨人only</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -874,11 +872,11 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.01.30 10:00-01.30 17:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H11" t="n">
         <v>60</v>
@@ -888,7 +886,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -898,37 +896,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广州·排球少年.only</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>东圃中山大道中358号 轰谧斯酒店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024.01.29 10:00-01.29 17:00</t>
+          <t>2024.02.01 10:00-02.01 17:00</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="H12" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -938,37 +936,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.30</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广州·进击的巨人only</t>
+          <t>从化·FS动漫展</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>从城大道383号 云岭湖酒店</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024.01.30 10:00-01.30 17:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>381</v>
+        <v>1283</v>
       </c>
       <c r="H13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -978,37 +976,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.02.01</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
+          <t>广州·怀旧ONLY</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>东圃中山大道中358号 轰谧斯酒店</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.02.01 10:00-02.01 17:00</t>
+          <t>2024.02.03 10:00-02.03 16:30</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>351</v>
+        <v>614</v>
       </c>
       <c r="H14" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1018,37 +1016,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>从化·FS动漫展</t>
+          <t>广州·原神x星铁x崩坏ONLY</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>从城大道383号 云岭湖酒店</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.04 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1118</v>
+        <v>72</v>
       </c>
       <c r="H15" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81073&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1058,37 +1056,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广州·怀旧ONLY</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 16:30</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>489</v>
+        <v>953</v>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1098,37 +1096,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.02.12</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广州·EY动漫嘉年华</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024.02.12 10:00-02.12 17:00</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>872</v>
+        <v>454</v>
       </c>
       <c r="H17" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1136,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1154,21 +1152,21 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.16 09:30-02.16 16:30</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>338</v>
+        <v>624</v>
       </c>
       <c r="H18" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1178,37 +1176,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>523</v>
+        <v>1006</v>
       </c>
       <c r="H19" t="n">
         <v>58</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1218,37 +1216,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州·星火.AI动漫嘉年华3.0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>迎宾路(沙溪路段)111号-3 美丽豪酒店(广州沙溪地铁站国际酒店用品城店)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>823</v>
+        <v>191</v>
       </c>
       <c r="H20" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80961&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1258,7 +1256,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1278,7 +1276,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>847</v>
+        <v>905</v>
       </c>
       <c r="H21" t="n">
         <v>55</v>
@@ -1298,7 +1296,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1318,7 +1316,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
@@ -1338,7 +1336,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1358,7 +1356,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="H23" t="n">
         <v>60</v>
@@ -1378,7 +1376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1398,7 +1396,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H24" t="n">
         <v>40</v>
@@ -1418,7 +1416,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1438,7 +1436,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="H25" t="n">
         <v>60</v>
@@ -1458,7 +1456,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.03.16</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1478,7 +1476,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>553</v>
+        <v>649</v>
       </c>
       <c r="H26" t="n">
         <v>39</v>
@@ -1498,7 +1496,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.03.16</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1518,7 +1516,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="H27" t="n">
         <v>60</v>
@@ -1538,7 +1536,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.03.23</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1558,7 +1556,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="H28" t="n">
         <v>60</v>
@@ -1578,7 +1576,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.04.20</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1598,7 +1596,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="H29" t="n">
         <v>69</v>
@@ -1670,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,39 +1732,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州· 西班牙格拉纳达弗拉门戈舞团经典舞剧《卡门》 白金版  </t>
+          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.01.20 20:00-01.20 21:40</t>
+          <t>2024.01.27 20:00-01.27 22:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>66</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>86</v>
+      </c>
+      <c r="H2" t="n">
+        <v>380</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=74796&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1776,37 +1772,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
+          <t>东风中路299号 广州中山纪念堂</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.21 15:30-01.21 17:00</t>
+          <t>2024.01.28 19:00-01.28 21:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>685</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1816,37 +1812,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
+          <t xml:space="preserve">广州·《数码宝贝:游乐园之谜》正版授权实景数码宝贝冒险舞台剧 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
+          <t>人民北路696号 广州友谊剧院</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.01.21 19:30-01.21 21:00</t>
+          <t>2024.02.03 13:30-02.03 15:30</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81020&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1856,27 +1852,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>革新路124号 太古仓码头</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
+          <t>2024.02.04 12:30-02.04 21:00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>71</v>
+        <v>846</v>
       </c>
       <c r="H5" t="n">
         <v>380</v>
@@ -1886,7 +1882,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1896,37 +1892,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
+          <t>2024.02.24 20:00-02.24 22:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1936,37 +1932,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州·三月的幻想演唱会2024「飞越蓝色时刻」</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
+          <t>2024.03.17 19:00-03.17 20:30</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>760</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
         <v>380</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80870&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -1976,37 +1972,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+          <t>广州·春卷饭 十周年  2024  专场演出</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+          <t>革新路124号太古仓码头54汇5号仓 太空间Livehouse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
+          <t>2024.03.23 20:00-03.23 22:00</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="H8" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81186&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2014,15 +2010,41 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 广州·夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>中山纪念堂 中山纪念堂</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024.04.28 19:30-04.28 21:30</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>280</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81068&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2042,12 +2064,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -2056,6 +2073,25 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2184,7 +2220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2248,39 +2284,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州· 西班牙格拉纳达弗拉门戈舞团经典舞剧《卡门》 白金版  </t>
+          <t>广州·《FGO》FES2024·广州特别纪念展</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
+          <t>新港东路1000号 保利世贸博览馆</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024.01.20 20:00-01.20 21:40</t>
+          <t>2024.01.26 09:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>66</v>
+        <v>11345</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>不可售</t>
+          <t>已售罄</t>
         </is>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=74796&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2290,37 +2326,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024.01.20</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广州·运动番ONLY</t>
+          <t>广州.星火.AI次元动漫展</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024.01.20 10:00-01.20 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1194</v>
+        <v>1840</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77532&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2330,37 +2366,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">广州·Ayasa LIVE TOUR 2024 〜A fraction〜 </t>
+          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>海珠同创汇东一街11号（上冲南约11-2） 声音共和Livehouse</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024.01.21 15:30-01.21 17:00</t>
+          <t>2024.01.27 20:00-01.27 22:00</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>685</v>
+        <v>86</v>
       </c>
       <c r="H4" t="n">
         <v>380</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79174&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2370,39 +2406,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州·全职高手only（取消）</t>
+          <t>广州·妖都魔法少女小圆ONLY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>鹤龙街道 鹤边鹤龙二横街3号D栋2楼 T20视觉艺术空间</t>
+          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024.01.21 10:00-01.21 17:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>121</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>510</v>
+      </c>
+      <c r="H5" t="n">
+        <v>68</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80210&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2412,37 +2446,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024.01.21</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州·青春国乐进行时——方锦龙和他的弟子们国潮音乐会</t>
+          <t>广州·第七届萌物语动漫嘉年华</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中山纪念堂 中山纪念堂</t>
+          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024.01.21 19:30-01.21 21:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>808</v>
       </c>
       <c r="H6" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79170&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2486,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024.01.26</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广州·《FGO》FES2024·广州特别纪念展</t>
+          <t>广州·第五人格only唐人街春市</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>新港东路1000号 保利世贸博览馆</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024.01.26 09:00-01.28 17:00</t>
+          <t>2024.01.27 10:00-01.27 16:30</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11218</v>
+        <v>2406</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2480,11 +2514,11 @@
         </is>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2494,37 +2528,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广州.星火.AI次元动漫展</t>
+          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>沙滘中路41-50号 火星工厂</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.27 12:00-01.29 00:00</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1534</v>
+        <v>732</v>
       </c>
       <c r="H8" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2534,37 +2568,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广州·七音阿卡莉 NANAOAKARI 2024 专场演出</t>
+          <t>广州·蓝锁only2.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
+          <t>大石街石北工业大道644号 巨大创意产业园</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024.01.27 20:00-01.27 22:00</t>
+          <t>2024.01.27 10:00-01.27 17:00</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>71</v>
+        <v>967</v>
       </c>
       <c r="H9" t="n">
-        <v>380</v>
+        <v>65</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2574,37 +2608,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广州·妖都魔法少女小圆ONLY</t>
+          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>同泰路颐和山庄内国际会议厅 颐和山庄</t>
+          <t>东风中路299号 广州中山纪念堂</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.28 19:00-01.28 21:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2614,37 +2648,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广州·第七届萌物语动漫嘉年华</t>
+          <t>广州·文豪野犬only</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>广龙路中油BP(白云万顺达南加油站)北侧约260米 李宁运动中心</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.01.28 10:00-01.28 17:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>705</v>
+        <v>571</v>
       </c>
       <c r="H11" t="n">
         <v>60</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2654,39 +2688,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广州·第五人格only唐人街春市</t>
+          <t>广州·排球少年.only</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 16:30</t>
+          <t>2024.01.29 10:00-01.29 17:00</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2195</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>不可售</t>
-        </is>
+        <v>432</v>
+      </c>
+      <c r="H12" t="n">
+        <v>60</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2696,37 +2728,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广州·第五届ACBC动漫盛典-二次元游园会</t>
+          <t>广州·进击的巨人only</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>沙滘中路41-50号 火星工厂</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024.01.27 12:00-01.29 00:00</t>
+          <t>2024.01.30 10:00-01.30 17:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>646</v>
+        <v>469</v>
       </c>
       <c r="H13" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2736,37 +2768,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024.01.27</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广州·蓝锁only2.0</t>
+          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大石街石北工业大道644号 巨大创意产业园</t>
+          <t>东圃中山大道中358号 轰谧斯酒店</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024.01.27 10:00-01.27 17:00</t>
+          <t>2024.02.01 10:00-02.01 17:00</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>865</v>
+        <v>431</v>
       </c>
       <c r="H14" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2776,37 +2808,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广州·《卡农》世界经典音乐之旅音乐会</t>
+          <t>从化·FS动漫展</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>东风中路299号 广州中山纪念堂</t>
+          <t>从城大道383号 云岭湖酒店</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024.01.28 19:00-01.28 21:00</t>
+          <t>2024.02.03 10:00-02.03 17:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>26</v>
+        <v>1283</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2816,37 +2848,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024.01.28</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广州·文豪野犬only</t>
+          <t xml:space="preserve">广州·《数码宝贝:游乐园之谜》正版授权实景数码宝贝冒险舞台剧 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>人民北路696号 广州友谊剧院</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024.01.28 10:00-01.28 17:00</t>
+          <t>2024.02.03 13:30-02.03 15:30</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81020&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2856,37 +2888,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024.01.29</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广州·排球少年.only</t>
+          <t>广州·怀旧ONLY</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024.01.29 10:00-01.29 17:00</t>
+          <t>2024.02.03 10:00-02.03 16:30</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>345</v>
+        <v>614</v>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2928,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024.01.30</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广州·进击的巨人only</t>
+          <t>广州·原神x星铁x崩坏ONLY</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2912,21 +2944,21 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024.01.30 10:00-01.30 17:00</t>
+          <t>2024.02.04 10:00-02.04 17:00</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>381</v>
+        <v>72</v>
       </c>
       <c r="H18" t="n">
         <v>60</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81073&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2936,37 +2968,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024.02.01</t>
+          <t>2024-02-04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广州·U.M.A闪耀ONLY（马娘only）</t>
+          <t>广州·次元LAB 二次元电音节</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>东圃中山大道中358号 轰谧斯酒店</t>
+          <t>革新路124号 太古仓码头</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024.02.01 10:00-02.01 17:00</t>
+          <t>2024.02.04 12:30-02.04 21:00</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>351</v>
+        <v>846</v>
       </c>
       <c r="H19" t="n">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -2976,37 +3008,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>从化·FS动漫展</t>
+          <t>广州·EY动漫嘉年华</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>从城大道383号 云岭湖酒店</t>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 17:00</t>
+          <t>2024.02.12 10:00-02.12 17:00</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1118</v>
+        <v>953</v>
       </c>
       <c r="H20" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3016,27 +3048,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024.02.03</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广州·怀旧ONLY</t>
+          <t>广州·运动番only4.0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 广州市岭南国际电子商务会展中心</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024.02.03 10:00-02.03 16:30</t>
+          <t>2024.02.14 10:00-02.14 17:00</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="H21" t="n">
         <v>60</v>
@@ -3046,7 +3078,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3056,37 +3088,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024.02.04</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广州·次元LAB 二次元电音节</t>
+          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>革新路124号 太古仓码头</t>
+          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024.02.04 12:30-02.04 21:00</t>
+          <t>2024.02.16 09:30-02.16 16:30</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>760</v>
+        <v>624</v>
       </c>
       <c r="H22" t="n">
-        <v>380</v>
+        <v>58</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3096,37 +3128,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024.02.12</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广州·EY动漫嘉年华</t>
+          <t>广州·樱漫动漫嘉年华8.0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024.02.12 10:00-02.12 17:00</t>
+          <t>2024.02.16 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>872</v>
+        <v>1006</v>
       </c>
       <c r="H23" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3136,37 +3168,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024.02.14</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>广州·运动番only4.0</t>
+          <t>广州·星火.AI动漫嘉年华3.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>迎宾路(沙溪路段)111号-3 美丽豪酒店(广州沙溪地铁站国际酒店用品城店)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024.02.14 10:00-02.14 17:00</t>
+          <t>2024.02.17 10:00-02.17 17:00</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>338</v>
+        <v>191</v>
       </c>
       <c r="H24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80961&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3176,37 +3208,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广州· 妖都原神only 2.0-提瓦特新春游园会</t>
+          <t>广州·cooperative kingdom同人展2.0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>洛浦街厦滘西环路1号 岭南会展中心</t>
+          <t>洛浦街夏滘西环路1号 岭南电商园</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024.02.16 09:30-02.16 16:30</t>
+          <t>2024.02.18 10:00-02.18 17:00</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>523</v>
+        <v>905</v>
       </c>
       <c r="H25" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3216,37 +3248,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024.02.16</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广州·樱漫动漫嘉年华8.0</t>
+          <t>广州·SISP动漫游戏嘉年华</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>奥体南路12号 优托邦(奥体旗舰店)</t>
+          <t>西湾路150号 悦汇城</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024.02.16 10:00-02.17 17:00</t>
+          <t>2024.02.24 13:00-02.25 19:00</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>823</v>
+        <v>115</v>
       </c>
       <c r="H26" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3256,37 +3288,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024.02.18</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>广州·cooperative kingdom同人展2.0</t>
+          <t>广州·砂糖桔动漫荟STJ01</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号 岭南电商园</t>
+          <t>东沙大道16号 广州国际医药港</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024.02.18 10:00-02.18 17:00</t>
+          <t>2024.02.24 10:00-02.25 18:00</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>847</v>
+        <v>211</v>
       </c>
       <c r="H27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80774&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3296,37 +3328,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>广州·SISP动漫游戏嘉年华</t>
+          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>西湾路150号 悦汇城</t>
+          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024.02.24 13:00-02.25 19:00</t>
+          <t>2024.02.24 20:00-02.24 22:00</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>48</v>
+        <v>420</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3336,37 +3368,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广州·砂糖桔动漫荟STJ01</t>
+          <t>广州·第五届清云动漫展</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>东沙大道16号 广州国际医药港</t>
+          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024.02.24 10:00-02.25 18:00</t>
+          <t>2024.02.25 10:00-02.25 17:00</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="H29" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80774&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3376,37 +3408,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024.02.24</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广州黄龄【有没有吃过饭】LIVEHOUSE巡演—广州站</t>
+          <t>广州·明日方舟ONLY</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>新港东路磨碟沙大街118号第8栋 媒棚LIVE</t>
+          <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024.02.24 20:00-02.24 22:00</t>
+          <t>2024.03.02 10:00-03.02 17:00</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="H30" t="n">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3416,37 +3448,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024.02.25</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广州·第五届清云动漫展</t>
+          <t>广州·代号鸢only2.0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>丰乐北路898号 雅居乐黄埔创新中心</t>
+          <t>清河东路288号 科尔海悦酒店</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024.02.25 10:00-02.25 17:00</t>
+          <t>2024.03.16 10:00-03.16 21:00</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>90</v>
+        <v>649</v>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3456,27 +3488,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024.03.02</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广州·明日方舟ONLY</t>
+          <t>广州·原神X星穹铁道X绝区零ONLY</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024.03.02 10:00-03.02 17:00</t>
+          <t>2024.03.16 10:00-03.16 17:00</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="H32" t="n">
         <v>60</v>
@@ -3486,7 +3518,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3496,37 +3528,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024.03.16</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>广州·代号鸢only2.0</t>
+          <t>广州·三月的幻想演唱会2024「飞越蓝色时刻」</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>清河东路288号 科尔海悦酒店</t>
+          <t>恩宁路265号三层、四层自编01 MAO Livehouse广州(永庆坊店)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 21:00</t>
+          <t>2024.03.17 19:00-03.17 20:30</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>553</v>
+        <v>38</v>
       </c>
       <c r="H33" t="n">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80870&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3536,27 +3568,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024.03.16</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>广州·原神X星穹铁道X绝区零ONLY</t>
+          <t>广州·排球少年ONLY</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>洛浦街夏滘西环路1号(厦滘地铁站A口步行290米) 厦喾岭南电商园会展中心</t>
+          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024.03.16 10:00-03.16 17:00</t>
+          <t>2024.03.23 10:00-03.23 17:00</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="n">
         <v>60</v>
@@ -3566,7 +3598,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3576,37 +3608,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024.03.23</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广州·排球少年ONLY</t>
+          <t>广州·春卷饭 十周年  2024  专场演出</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>机场路1399号广州百信广场二期 李宁运动中心</t>
+          <t>革新路124号太古仓码头54汇5号仓 太空间Livehouse</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024.03.23 10:00-03.23 17:00</t>
+          <t>2024.03.23 20:00-03.23 22:00</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="H35" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
+          <t>https://show.bilibili.com/platform/detail.html?id=81186&amp;msource=Msearch_colligation</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3648,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024.04.20</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3636,7 +3668,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="H36" t="n">
         <v>69</v>
@@ -3654,15 +3686,41 @@
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 广州·夏川里美 2024 巡回演唱会 出道 25 周年纪念专场</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>中山纪念堂 中山纪念堂</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024.04.28 19:30-04.28 21:30</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>280</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://show.bilibili.com/platform/detail.html?id=81068&amp;msource=Msearch_colligation</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3682,12 +3740,7 @@
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
-项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -3697,6 +3750,25 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>数据来自B站会员购，仅供学习交流用途，严禁商业用途
+项目地址：https://github.com/zxcsjf/BilibiliAnimationExhibitionInformationCollection</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/漫展信息/广州-漫展信息.xlsx
+++ b/漫展信息/广州-漫展信息.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -512,17 +507,14 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>11345</v>
+        <v>11349</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
         </is>
@@ -554,15 +546,12 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="H3" t="n">
         <v>55</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
         </is>
@@ -594,15 +583,12 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H4" t="n">
         <v>68</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
         </is>
@@ -634,15 +620,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H5" t="n">
         <v>60</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
         </is>
@@ -674,17 +657,14 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
         </is>
@@ -716,15 +696,12 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
         </is>
@@ -756,15 +733,12 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H8" t="n">
         <v>65</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
         </is>
@@ -796,15 +770,12 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H9" t="n">
         <v>60</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
         </is>
@@ -836,15 +807,12 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H10" t="n">
         <v>60</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
         </is>
@@ -876,15 +844,12 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H11" t="n">
         <v>60</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
         </is>
@@ -921,10 +886,7 @@
       <c r="H12" t="n">
         <v>68</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
         </is>
@@ -956,15 +918,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H13" t="n">
         <v>35</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
         </is>
@@ -996,15 +955,12 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H14" t="n">
         <v>75</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
         </is>
@@ -1041,10 +997,7 @@
       <c r="H15" t="n">
         <v>60</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81073&amp;msource=Msearch_colligation</t>
         </is>
@@ -1076,15 +1029,12 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H16" t="n">
         <v>63</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
@@ -1116,15 +1066,12 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H17" t="n">
         <v>60</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
@@ -1156,15 +1103,12 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H18" t="n">
         <v>58</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
@@ -1196,15 +1140,12 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="H19" t="n">
         <v>58</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
@@ -1236,15 +1177,12 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H20" t="n">
         <v>55</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80961&amp;msource=Msearch_colligation</t>
         </is>
@@ -1276,15 +1214,12 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H21" t="n">
         <v>55</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
         </is>
@@ -1316,15 +1251,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
         </is>
@@ -1361,10 +1293,7 @@
       <c r="H23" t="n">
         <v>60</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80774&amp;msource=Msearch_colligation</t>
         </is>
@@ -1401,10 +1330,7 @@
       <c r="H24" t="n">
         <v>40</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
         </is>
@@ -1441,10 +1367,7 @@
       <c r="H25" t="n">
         <v>60</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
         </is>
@@ -1476,15 +1399,12 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H26" t="n">
         <v>39</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
         </is>
@@ -1516,15 +1436,12 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H27" t="n">
         <v>60</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
         </is>
@@ -1556,15 +1473,12 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H28" t="n">
         <v>60</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
         </is>
@@ -1596,15 +1510,12 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H29" t="n">
         <v>69</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
         </is>
@@ -1622,7 +1533,6 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1636,7 +1546,6 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1655,7 +1564,6 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1668,7 +1576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,11 +1625,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -1752,15 +1655,12 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" t="n">
         <v>380</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
@@ -1797,10 +1697,7 @@
       <c r="H3" t="n">
         <v>100</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
@@ -1837,10 +1734,7 @@
       <c r="H4" t="n">
         <v>50</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81020&amp;msource=Msearch_colligation</t>
         </is>
@@ -1872,15 +1766,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H5" t="n">
         <v>380</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
@@ -1917,10 +1808,7 @@
       <c r="H6" t="n">
         <v>420</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
         </is>
@@ -1957,10 +1845,7 @@
       <c r="H7" t="n">
         <v>380</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80870&amp;msource=Msearch_colligation</t>
         </is>
@@ -1992,15 +1877,12 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="H8" t="n">
         <v>480</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81186&amp;msource=Msearch_colligation</t>
         </is>
@@ -2037,10 +1919,7 @@
       <c r="H9" t="n">
         <v>280</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81068&amp;msource=Msearch_colligation</t>
         </is>
@@ -2058,7 +1937,6 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2072,7 +1950,6 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2091,7 +1968,6 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2104,7 +1980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2153,11 +2029,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -2174,7 +2045,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2188,7 +2058,6 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2207,7 +2076,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2220,7 +2088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,11 +2137,6 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>是否有舞台（字符串匹配）</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>Link</t>
         </is>
       </c>
@@ -2304,17 +2167,14 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>11345</v>
+        <v>11349</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80066&amp;msource=Msearch_colligation</t>
         </is>
@@ -2346,15 +2206,12 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="H3" t="n">
         <v>55</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=78754&amp;msource=Msearch_colligation</t>
         </is>
@@ -2386,15 +2243,12 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" t="n">
         <v>380</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79638&amp;msource=Msearch_colligation</t>
         </is>
@@ -2426,15 +2280,12 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H5" t="n">
         <v>68</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79748&amp;msource=Msearch_colligation</t>
         </is>
@@ -2466,15 +2317,12 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="H6" t="n">
         <v>60</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79317&amp;msource=Msearch_colligation</t>
         </is>
@@ -2506,17 +2354,14 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>已售罄</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79038&amp;msource=Msearch_colligation</t>
         </is>
@@ -2548,15 +2393,12 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80415&amp;msource=Msearch_colligation</t>
         </is>
@@ -2588,15 +2430,12 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H9" t="n">
         <v>65</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79750&amp;msource=Msearch_colligation</t>
         </is>
@@ -2633,10 +2472,7 @@
       <c r="H10" t="n">
         <v>100</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80047&amp;msource=Msearch_colligation</t>
         </is>
@@ -2668,15 +2504,12 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H11" t="n">
         <v>60</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80436&amp;msource=Msearch_colligation</t>
         </is>
@@ -2708,15 +2541,12 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H12" t="n">
         <v>60</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80453&amp;msource=Msearch_colligation</t>
         </is>
@@ -2748,15 +2578,12 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H13" t="n">
         <v>60</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80454&amp;msource=Msearch_colligation</t>
         </is>
@@ -2793,10 +2620,7 @@
       <c r="H14" t="n">
         <v>68</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80184&amp;msource=Msearch_colligation</t>
         </is>
@@ -2828,15 +2652,12 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H15" t="n">
         <v>35</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=77976&amp;msource=Msearch_colligation</t>
         </is>
@@ -2873,10 +2694,7 @@
       <c r="H16" t="n">
         <v>50</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81020&amp;msource=Msearch_colligation</t>
         </is>
@@ -2908,15 +2726,12 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H17" t="n">
         <v>75</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79752&amp;msource=Msearch_colligation</t>
         </is>
@@ -2953,10 +2768,7 @@
       <c r="H18" t="n">
         <v>60</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81073&amp;msource=Msearch_colligation</t>
         </is>
@@ -2988,15 +2800,12 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H19" t="n">
         <v>380</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80147&amp;msource=Msearch_colligation</t>
         </is>
@@ -3028,15 +2837,12 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="H20" t="n">
         <v>63</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80574&amp;msource=Msearch_colligation</t>
         </is>
@@ -3068,15 +2874,12 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="H21" t="n">
         <v>60</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80499&amp;msource=Msearch_colligation</t>
         </is>
@@ -3108,15 +2911,12 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H22" t="n">
         <v>58</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79914&amp;msource=Msearch_colligation</t>
         </is>
@@ -3148,15 +2948,12 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="H23" t="n">
         <v>58</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79792&amp;msource=Msearch_colligation</t>
         </is>
@@ -3188,15 +2985,12 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H24" t="n">
         <v>55</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80961&amp;msource=Msearch_colligation</t>
         </is>
@@ -3228,15 +3022,12 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H25" t="n">
         <v>55</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79264&amp;msource=Msearch_colligation</t>
         </is>
@@ -3268,15 +3059,12 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80624&amp;msource=Msearch_colligation</t>
         </is>
@@ -3313,10 +3101,7 @@
       <c r="H27" t="n">
         <v>60</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80774&amp;msource=Msearch_colligation</t>
         </is>
@@ -3353,10 +3138,7 @@
       <c r="H28" t="n">
         <v>420</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80205&amp;msource=Msearch_colligation</t>
         </is>
@@ -3393,10 +3175,7 @@
       <c r="H29" t="n">
         <v>40</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80502&amp;msource=Msearch_colligation</t>
         </is>
@@ -3433,10 +3212,7 @@
       <c r="H30" t="n">
         <v>60</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80271&amp;msource=Msearch_colligation</t>
         </is>
@@ -3468,15 +3244,12 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H31" t="n">
         <v>39</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=79828&amp;msource=Msearch_colligation</t>
         </is>
@@ -3508,15 +3281,12 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H32" t="n">
         <v>60</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80715&amp;msource=Msearch_colligation</t>
         </is>
@@ -3553,10 +3323,7 @@
       <c r="H33" t="n">
         <v>380</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80870&amp;msource=Msearch_colligation</t>
         </is>
@@ -3588,15 +3355,12 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H34" t="n">
         <v>60</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80716&amp;msource=Msearch_colligation</t>
         </is>
@@ -3628,15 +3392,12 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="H35" t="n">
         <v>480</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81186&amp;msource=Msearch_colligation</t>
         </is>
@@ -3668,15 +3429,12 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H36" t="n">
         <v>69</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=80282&amp;msource=Msearch_colligation</t>
         </is>
@@ -3713,10 +3471,7 @@
       <c r="H37" t="n">
         <v>280</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://show.bilibili.com/platform/detail.html?id=81068&amp;msource=Msearch_colligation</t>
         </is>
@@ -3734,7 +3489,6 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3748,7 +3502,6 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3767,7 +3520,6 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
